--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\Fusion order 2504\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\Orders\Fabrication1907\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Designator</t>
   </si>
@@ -38,9 +38,6 @@
     <t>L6234</t>
   </si>
   <si>
-    <t>P1, P2</t>
-  </si>
-  <si>
     <t>P3, P4</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
     <t>156120RS75300</t>
   </si>
   <si>
-    <t>RN73H2ETTD3001F50</t>
-  </si>
-  <si>
-    <t>RN73H2ETTD6200F50</t>
-  </si>
-  <si>
     <t>M20-7820546</t>
   </si>
   <si>
@@ -134,7 +125,70 @@
     <t>Manufacturer Part Number or Seeed SKU</t>
   </si>
   <si>
-    <t>PULL_A, PULL_B, PULL_I</t>
+    <t>PULL_A, PULL_B, PULL_I, R2</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1206 100nF</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>1206 1uF</t>
+  </si>
+  <si>
+    <t>1206 10nF</t>
+  </si>
+  <si>
+    <t>1206 220nF</t>
+  </si>
+  <si>
+    <t>BAT54S diode array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red diode 2V </t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>8 pin female header long</t>
+  </si>
+  <si>
+    <t>6 pin female header long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5pin female/male header </t>
+  </si>
+  <si>
+    <t>terminal connector 3pin 5mm pitch</t>
+  </si>
+  <si>
+    <t>terminal connector 2pin 5mm pitch</t>
+  </si>
+  <si>
+    <t>resistor 3.3KOhm 1210</t>
+  </si>
+  <si>
+    <t>resistor 620Ohm 1210</t>
+  </si>
+  <si>
+    <t>920-0087-01</t>
+  </si>
+  <si>
+    <t>10 pin female header long (pack of 6)</t>
+  </si>
+  <si>
+    <t>ERJ-14YJ332U</t>
+  </si>
+  <si>
+    <t>ERJ-14NF6200U</t>
   </si>
 </sst>
 </file>
@@ -499,264 +553,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
-    <hyperlink ref="B7" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
-    <hyperlink ref="B8" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B9" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B10" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B11" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B13" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B14" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B15" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
-    <hyperlink ref="B16" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
-    <hyperlink ref="B5" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B2" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B3" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B4" tooltip="Supplier" display="'"/>
-    <hyperlink ref="B12" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C6" r:id="rId1" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
+    <hyperlink ref="C7" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
+    <hyperlink ref="C8" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C9" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C11" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C12" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C14" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C15" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C16" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
+    <hyperlink ref="C17" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
+    <hyperlink ref="C5" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C2" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C3" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C4" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C13" tooltip="Supplier" display="'"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\Orders\Fabrication1907\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\github\Arduino-SimpleFOCShield\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Designator</t>
   </si>
@@ -113,9 +113,6 @@
     <t>6fx1L-254mm</t>
   </si>
   <si>
-    <t>8Fx1L-254mm</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Manufacturer Part Number or Seeed SKU</t>
   </si>
   <si>
-    <t>PULL_A, PULL_B, PULL_I, R2</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -189,6 +183,21 @@
   </si>
   <si>
     <t>ERJ-14NF6200U</t>
+  </si>
+  <si>
+    <t>920-0086-01</t>
+  </si>
+  <si>
+    <t>PULL_A, PULL_B, PULL_I</t>
+  </si>
+  <si>
+    <t>PULL_SDA, PULL_SCL, R2</t>
+  </si>
+  <si>
+    <t>resistor 4.7KOhm 1210</t>
+  </si>
+  <si>
+    <t>RC1210FR-074K7L</t>
   </si>
 </sst>
 </file>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -589,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>23</v>
@@ -598,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -606,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
@@ -615,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -623,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -632,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -640,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -649,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -660,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -669,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -686,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -694,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
@@ -703,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -718,41 +727,41 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -760,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>28</v>
@@ -769,92 +778,109 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -865,14 +891,15 @@
     <hyperlink ref="C9" tooltip="Supplier" display="'"/>
     <hyperlink ref="C11" tooltip="Supplier" display="'"/>
     <hyperlink ref="C12" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C14" tooltip="Supplier" display="'"/>
     <hyperlink ref="C15" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C16" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
-    <hyperlink ref="C17" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
+    <hyperlink ref="C16" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C17" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
+    <hyperlink ref="C18" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
     <hyperlink ref="C5" tooltip="Supplier" display="'"/>
     <hyperlink ref="C2" tooltip="Supplier" display="'"/>
     <hyperlink ref="C3" tooltip="Supplier" display="'"/>
     <hyperlink ref="C4" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C14" tooltip="Supplier" display="'"/>
     <hyperlink ref="C13" tooltip="Supplier" display="'"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Designator</t>
   </si>
@@ -38,9 +38,6 @@
     <t>L6234</t>
   </si>
   <si>
-    <t>P3, P4</t>
-  </si>
-  <si>
     <t>P_ENC</t>
   </si>
   <si>
@@ -140,15 +137,6 @@
     <t>1206 220nF</t>
   </si>
   <si>
-    <t>BAT54S diode array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red diode 2V </t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -167,12 +155,6 @@
     <t>terminal connector 2pin 5mm pitch</t>
   </si>
   <si>
-    <t>resistor 3.3KOhm 1210</t>
-  </si>
-  <si>
-    <t>resistor 620Ohm 1210</t>
-  </si>
-  <si>
     <t>920-0087-01</t>
   </si>
   <si>
@@ -194,10 +176,28 @@
     <t>PULL_SDA, PULL_SCL, R2</t>
   </si>
   <si>
-    <t>resistor 4.7KOhm 1210</t>
-  </si>
-  <si>
     <t>RC1210FR-074K7L</t>
+  </si>
+  <si>
+    <t>1206 red diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 620Ohm 1210</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P1, P4</t>
+  </si>
+  <si>
+    <t>BAT54S</t>
+  </si>
+  <si>
+    <t>3.3KOhm 1210</t>
+  </si>
+  <si>
+    <t>4.7KOhm 1210</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,87 +581,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -669,33 +669,33 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -703,82 +703,84 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -786,101 +788,101 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -889,9 +891,9 @@
     <hyperlink ref="C7" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
     <hyperlink ref="C8" tooltip="Supplier" display="'"/>
     <hyperlink ref="C9" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C11" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C12" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C14" tooltip="Supplier" display="'"/>
     <hyperlink ref="C15" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C10" tooltip="Supplier" display="'"/>
     <hyperlink ref="C16" tooltip="Supplier" display="'"/>
     <hyperlink ref="C17" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
     <hyperlink ref="C18" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
@@ -899,8 +901,7 @@
     <hyperlink ref="C2" tooltip="Supplier" display="'"/>
     <hyperlink ref="C3" tooltip="Supplier" display="'"/>
     <hyperlink ref="C4" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C14" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C13" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C12" tooltip="Supplier" display="'"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -182,9 +182,6 @@
     <t>1206 red diode</t>
   </si>
   <si>
-    <t xml:space="preserve"> 620Ohm 1210</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>4.7KOhm 1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 750Ohm 1210</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>46</v>
@@ -754,7 +754,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>50</v>
@@ -771,7 +771,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>45</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\github\Arduino-SimpleFOCShield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\SimpleFOCShieldV2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Designator</t>
   </si>
@@ -182,22 +182,58 @@
     <t>1206 red diode</t>
   </si>
   <si>
+    <t xml:space="preserve"> 3.3KOhm 1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.7KOhm 1210</t>
+  </si>
+  <si>
     <t>P3</t>
   </si>
   <si>
     <t>P1, P4</t>
   </si>
   <si>
+    <t>RCS1, RCS2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CBY1</t>
+  </si>
+  <si>
+    <t>1206 0.1uF</t>
+  </si>
+  <si>
+    <t>INA240</t>
+  </si>
+  <si>
+    <t>INA1,INA2</t>
+  </si>
+  <si>
+    <t>CAP2</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>VZH100M1HTR-0606</t>
+  </si>
+  <si>
     <t>BAT54S</t>
   </si>
   <si>
-    <t>3.3KOhm 1210</t>
-  </si>
-  <si>
-    <t>4.7KOhm 1210</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 750Ohm 1210</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L7805</t>
+  </si>
+  <si>
+    <t>0.01Ohm 2512</t>
   </si>
 </sst>
 </file>
@@ -562,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,13 +702,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -683,13 +719,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -700,13 +736,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -717,13 +753,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -734,13 +770,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -751,13 +787,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -768,13 +804,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -785,16 +821,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -802,108 +838,179 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
-    <hyperlink ref="C7" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
-    <hyperlink ref="C8" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C7" r:id="rId1" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
+    <hyperlink ref="C8" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
     <hyperlink ref="C9" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C14" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C15" tooltip="Supplier" display="'"/>
     <hyperlink ref="C10" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C16" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C17" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
-    <hyperlink ref="C18" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
+    <hyperlink ref="C13" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C21" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C22" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
+    <hyperlink ref="C23" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
     <hyperlink ref="C5" tooltip="Supplier" display="'"/>
     <hyperlink ref="C2" tooltip="Supplier" display="'"/>
     <hyperlink ref="C3" tooltip="Supplier" display="'"/>
     <hyperlink ref="C4" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C12" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C20" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C19" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C6" r:id="rId5" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\SimpleFOCShieldV2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\github\Arduino-SimpleFOCShield\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,10 +230,10 @@
     <t>L1</t>
   </si>
   <si>
-    <t>L7805</t>
-  </si>
-  <si>
     <t>0.01Ohm 2512</t>
+  </si>
+  <si>
+    <t>L7808</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>57</v>
@@ -882,7 +882,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\github\Arduino-SimpleFOCShield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\SimpleFOCShieldV2.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,9 +179,6 @@
     <t>RC1210FR-074K7L</t>
   </si>
   <si>
-    <t>1206 red diode</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3.3KOhm 1210</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>1206 0.1uF</t>
   </si>
   <si>
-    <t>INA240</t>
-  </si>
-  <si>
     <t>INA1,INA2</t>
   </si>
   <si>
@@ -224,16 +218,22 @@
     <t>BAT54S</t>
   </si>
   <si>
-    <t xml:space="preserve"> 750Ohm 1210</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
     <t>0.01Ohm 2512</t>
   </si>
   <si>
-    <t>L7808</t>
+    <t>INA240A2</t>
+  </si>
+  <si>
+    <t>L78M08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1kOhm 1210</t>
+  </si>
+  <si>
+    <t>1206 blue diode</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,13 +702,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
@@ -790,7 +790,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>45</v>
@@ -807,7 +807,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>50</v>
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>46</v>
@@ -838,13 +838,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3">
@@ -866,10 +866,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3">
@@ -879,10 +879,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3">
@@ -892,7 +892,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\SimpleFOCShieldV2.0.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\ShieldVersions\SimpleFOCShieldV2.0.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Designator</t>
   </si>
@@ -164,9 +164,6 @@
     <t>ERJ-14YJ332U</t>
   </si>
   <si>
-    <t>ERJ-14NF6200U</t>
-  </si>
-  <si>
     <t>920-0086-01</t>
   </si>
   <si>
@@ -206,15 +203,6 @@
     <t>INA1,INA2</t>
   </si>
   <si>
-    <t>CAP2</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>VZH100M1HTR-0606</t>
-  </si>
-  <si>
     <t>BAT54S</t>
   </si>
   <si>
@@ -230,10 +218,16 @@
     <t>L78M08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1kOhm 1210</t>
-  </si>
-  <si>
     <t>1206 blue diode</t>
+  </si>
+  <si>
+    <t>CL1</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2kOhm 1210</t>
   </si>
 </sst>
 </file>
@@ -601,7 +595,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,13 +696,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -739,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -756,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
@@ -787,10 +781,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>45</v>
@@ -804,13 +798,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -824,10 +818,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -838,13 +832,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -853,12 +847,14 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
@@ -866,10 +862,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3">
@@ -879,10 +875,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3">
@@ -892,13 +888,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -926,7 +922,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\ShieldVersions\SimpleFOCShieldV2.0.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoFOC" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>Designator</t>
   </si>
@@ -228,13 +228,16 @@
   </si>
   <si>
     <t xml:space="preserve"> 2kOhm 1210</t>
+  </si>
+  <si>
+    <t>Footprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +256,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +321,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,7 +607,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +634,9 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -639,6 +654,9 @@
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F2" s="6">
+        <v>1206</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -656,6 +674,9 @@
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F3" s="6">
+        <v>1206</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -673,6 +694,9 @@
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F4" s="6">
+        <v>1206</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -690,6 +714,9 @@
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F5" s="6">
+        <v>1206</v>
+      </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
@@ -710,6 +737,9 @@
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F6" s="6">
+        <v>1206</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -726,6 +756,9 @@
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -744,6 +777,9 @@
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -761,6 +797,9 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="6">
+        <v>1206</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -778,6 +817,9 @@
       <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -795,6 +837,9 @@
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F11" s="6">
+        <v>1210</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -812,6 +857,9 @@
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F12" s="6">
+        <v>1210</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -829,6 +877,9 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F13" s="6">
+        <v>1206</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -844,6 +895,9 @@
         <v>2</v>
       </c>
       <c r="E14" s="2"/>
+      <c r="F14" s="7">
+        <v>2510</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -859,6 +913,9 @@
         <v>1</v>
       </c>
       <c r="E15" s="2"/>
+      <c r="F15" s="6">
+        <v>1206</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -872,8 +929,11 @@
         <v>2</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -885,8 +945,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -902,8 +965,11 @@
       <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -919,8 +985,11 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -936,8 +1005,11 @@
       <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -953,8 +1025,11 @@
       <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -970,8 +1045,11 @@
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -986,6 +1064,9 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
